--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2517945.089683368</v>
+        <v>-2520311.806253925</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>173.104476140791</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>123.5325485707257</v>
       </c>
       <c r="G2" t="n">
-        <v>414.3274040337309</v>
+        <v>24.07635531722526</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4861680993369</v>
       </c>
       <c r="I2" t="n">
-        <v>172.8743455285723</v>
+        <v>172.8743455285722</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>88.60232613989598</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.2676262293242</v>
       </c>
       <c r="V2" t="n">
-        <v>181.5572629066888</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96.32221389149699</v>
+        <v>136.8216677443631</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>107.1954774807849</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>71.42944891302474</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>67.75739391928596</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>161.9900470300693</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.0613093267476</v>
       </c>
       <c r="U3" t="n">
         <v>225.9070498823664</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2767326363521</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>96.06606232826009</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>157.6217544836047</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>216.3921483958554</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>226.0762668767296</v>
       </c>
       <c r="U4" t="n">
-        <v>93.54947434846012</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>232.6511886341578</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>275.9464734457786</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>39.25266187003817</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>66.97894477928193</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>365.9971875312715</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>21.78258997919009</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>20.92041677519556</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>49.68400593664046</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1664,7 +1664,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.4262137773466</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>218.5058872117974</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>52.35061091926926</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>60.76903089633814</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,10 +2135,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>69.99430174931011</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>174.0284418697866</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>143.9160732883292</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>200.5864956139556</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.640336399621</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433808</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800365</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797597</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870198</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,16 +3430,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572852</v>
       </c>
       <c r="I37" t="n">
         <v>49.37728379124552</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514543</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4034,7 +4034,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515427</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870198</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>816.3164884954045</v>
+        <v>1441.973617549949</v>
       </c>
       <c r="C2" t="n">
-        <v>816.3164884954045</v>
+        <v>1441.973617549949</v>
       </c>
       <c r="D2" t="n">
-        <v>816.3164884954045</v>
+        <v>1083.707918943199</v>
       </c>
       <c r="E2" t="n">
-        <v>641.4634822925854</v>
+        <v>697.9196663449545</v>
       </c>
       <c r="F2" t="n">
-        <v>634.5179815433819</v>
+        <v>573.1393142533124</v>
       </c>
       <c r="G2" t="n">
-        <v>216.0054522163809</v>
+        <v>548.8197634278323</v>
       </c>
       <c r="H2" t="n">
         <v>216.0054522163809</v>
       </c>
       <c r="I2" t="n">
-        <v>41.38490117741902</v>
+        <v>41.38490117741905</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5075126830052</v>
+        <v>111.5075126830054</v>
       </c>
       <c r="K2" t="n">
-        <v>337.3479341657396</v>
+        <v>337.34793416574</v>
       </c>
       <c r="L2" t="n">
-        <v>669.7995747334173</v>
+        <v>669.7995747334179</v>
       </c>
       <c r="M2" t="n">
         <v>1056.322626911263</v>
       </c>
       <c r="N2" t="n">
-        <v>1434.468028624942</v>
+        <v>1434.468028624943</v>
       </c>
       <c r="O2" t="n">
-        <v>1746.352370691375</v>
+        <v>1746.352370691376</v>
       </c>
       <c r="P2" t="n">
-        <v>1974.864058038268</v>
+        <v>1974.864058038269</v>
       </c>
       <c r="Q2" t="n">
-        <v>2069.245058870951</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="R2" t="n">
-        <v>1979.747759739743</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="S2" t="n">
-        <v>1979.747759739743</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="T2" t="n">
-        <v>1979.747759739743</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="U2" t="n">
-        <v>1725.94207667982</v>
+        <v>1815.439375811029</v>
       </c>
       <c r="V2" t="n">
-        <v>1542.550902026599</v>
+        <v>1815.439375811029</v>
       </c>
       <c r="W2" t="n">
-        <v>1189.782246756484</v>
+        <v>1815.439375811029</v>
       </c>
       <c r="X2" t="n">
-        <v>816.3164884954045</v>
+        <v>1441.973617549949</v>
       </c>
       <c r="Y2" t="n">
-        <v>816.3164884954045</v>
+        <v>1441.973617549949</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>767.8395186453345</v>
+        <v>683.4052634916891</v>
       </c>
       <c r="C3" t="n">
-        <v>593.3864893642075</v>
+        <v>508.952234210562</v>
       </c>
       <c r="D3" t="n">
-        <v>444.4520797029562</v>
+        <v>360.0178245493108</v>
       </c>
       <c r="E3" t="n">
-        <v>285.2146246975007</v>
+        <v>360.0178245493108</v>
       </c>
       <c r="F3" t="n">
-        <v>138.6800667243857</v>
+        <v>360.0178245493108</v>
       </c>
       <c r="G3" t="n">
-        <v>41.38490117741902</v>
+        <v>221.8141197570248</v>
       </c>
       <c r="H3" t="n">
-        <v>41.38490117741902</v>
+        <v>113.5358596754239</v>
       </c>
       <c r="I3" t="n">
-        <v>41.38490117741902</v>
+        <v>41.38490117741905</v>
       </c>
       <c r="J3" t="n">
-        <v>41.38490117741902</v>
+        <v>89.45606851916233</v>
       </c>
       <c r="K3" t="n">
-        <v>41.38490117741902</v>
+        <v>89.45606851916233</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8070759580327</v>
+        <v>431.5937968666597</v>
       </c>
       <c r="M3" t="n">
-        <v>802.0448889857728</v>
+        <v>802.0448889857735</v>
       </c>
       <c r="N3" t="n">
-        <v>1280.932637611796</v>
+        <v>1280.932637611797</v>
       </c>
       <c r="O3" t="n">
-        <v>1652.605691037771</v>
+        <v>1652.605691037772</v>
       </c>
       <c r="P3" t="n">
-        <v>1933.903016009917</v>
+        <v>1933.903016009918</v>
       </c>
       <c r="Q3" t="n">
-        <v>2069.245058870951</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="R3" t="n">
-        <v>2069.245058870951</v>
+        <v>2000.80324683127</v>
       </c>
       <c r="S3" t="n">
-        <v>2069.245058870951</v>
+        <v>1837.176936699886</v>
       </c>
       <c r="T3" t="n">
-        <v>2069.245058870951</v>
+        <v>1637.11500808701</v>
       </c>
       <c r="U3" t="n">
-        <v>1841.056119595833</v>
+        <v>1408.926068811892</v>
       </c>
       <c r="V3" t="n">
-        <v>1605.904011364091</v>
+        <v>1267.232399482244</v>
       </c>
       <c r="W3" t="n">
-        <v>1351.666654635889</v>
+        <v>1267.232399482244</v>
       </c>
       <c r="X3" t="n">
-        <v>1143.815154430356</v>
+        <v>1059.380899276711</v>
       </c>
       <c r="Y3" t="n">
-        <v>936.0548556654026</v>
+        <v>851.6206005117572</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="C4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="D4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="E4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="F4" t="n">
-        <v>41.38490117741902</v>
+        <v>1693.995245840992</v>
       </c>
       <c r="G4" t="n">
-        <v>41.38490117741902</v>
+        <v>1693.995245840992</v>
       </c>
       <c r="H4" t="n">
-        <v>41.38490117741902</v>
+        <v>1596.95881924679</v>
       </c>
       <c r="I4" t="n">
-        <v>41.38490117741902</v>
+        <v>1596.95881924679</v>
       </c>
       <c r="J4" t="n">
-        <v>41.38490117741902</v>
+        <v>1596.95881924679</v>
       </c>
       <c r="K4" t="n">
-        <v>69.659471901166</v>
+        <v>1625.233389970537</v>
       </c>
       <c r="L4" t="n">
-        <v>161.3676224365348</v>
+        <v>1716.941540505906</v>
       </c>
       <c r="M4" t="n">
-        <v>268.4501318390645</v>
+        <v>1824.024049908436</v>
       </c>
       <c r="N4" t="n">
-        <v>378.421074931032</v>
+        <v>1933.994993000403</v>
       </c>
       <c r="O4" t="n">
-        <v>463.980744674895</v>
+        <v>2019.554662744267</v>
       </c>
       <c r="P4" t="n">
-        <v>513.6711408015809</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="Q4" t="n">
-        <v>513.6711408015809</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="R4" t="n">
-        <v>354.4572473837984</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="S4" t="n">
-        <v>135.8793197112171</v>
+        <v>2069.245058870953</v>
       </c>
       <c r="T4" t="n">
-        <v>135.8793197112171</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="U4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="V4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="W4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="X4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.38490117741902</v>
+        <v>1840.885193338902</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4601,16 +4601,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1968.574435273556</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1968.574435273556</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1578.435103297744</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,7 +4647,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>660.4734844293818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>660.4734844293818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>660.4734844293818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>432.4839335313644</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2026.572534801951</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1673.803879531837</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,19 +4884,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5030,19 +5030,19 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L11" t="n">
         <v>1482.778354750621</v>
@@ -5051,16 +5051,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,7 +5157,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.6246893480952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>558.6885064201883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>558.6885064201883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>410.7754128377952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518524</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104698</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862226</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689052</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258578</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384222</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783349</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>909.2731541783349</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>909.2731541783349</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.2731541783349</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>786.6724891157196</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>673.3827746590082</v>
+        <v>658.8294814682021</v>
       </c>
       <c r="C16" t="n">
-        <v>504.4465917311013</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D16" t="n">
-        <v>354.3299523187655</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E16" t="n">
-        <v>354.3299523187655</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1543.944564545876</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1543.944564545876</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1289.260076339989</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>1289.260076339989</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>1061.270525441972</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.3827746590082</v>
+        <v>840.4779462984418</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5540,19 +5540,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>507.4794957532405</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C19" t="n">
-        <v>507.4794957532405</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D19" t="n">
-        <v>507.4794957532405</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1903.464061135745</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1903.464061135745</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1681.697445705271</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1392.594578830915</v>
+        <v>1481.508107009805</v>
       </c>
       <c r="V19" t="n">
-        <v>1137.910090625028</v>
+        <v>1226.823618803918</v>
       </c>
       <c r="W19" t="n">
-        <v>1137.910090625028</v>
+        <v>937.4064487669579</v>
       </c>
       <c r="X19" t="n">
-        <v>909.9205397270104</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="Y19" t="n">
-        <v>689.1279605834802</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="20">
@@ -5753,19 +5753,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3641.993171584094</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5783,7 +5783,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.6246893481011</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C22" t="n">
-        <v>727.6246893481011</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D22" t="n">
-        <v>577.5080499357654</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
         <v>192.8867116300491</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>909.2731541783409</v>
+        <v>823.3173065018362</v>
       </c>
       <c r="X22" t="n">
-        <v>909.2731541783409</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.2731541783409</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>946.9795471160882</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>946.9795471160882</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6172,25 +6172,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1472.21450285678</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U25" t="n">
-        <v>1183.111635982423</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454626</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>1349.420591089858</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>1128.628011946328</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,22 +6227,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1098.605412891584</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1549.639626139993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774088</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E28" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,13 +6403,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,16 +6418,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X28" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,22 +6464,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1098.605412891584</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1549.639626139993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774088</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,13 +6640,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,16 +6655,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
         <v>2005.253839749764</v>
@@ -6683,43 +6683,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6734,16 +6734,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>187.1890521477367</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
         <v>800.7468040499223</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6886,22 +6886,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
         <v>3835.976694641921</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643397</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7102,7 +7102,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7114,31 +7114,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
         <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="38">
@@ -7175,22 +7175,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878784</v>
+        <v>937.3106675423214</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127192</v>
+        <v>1388.34488079073</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799117</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857899</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737236</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7354,28 +7354,28 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
@@ -7415,34 +7415,34 @@
         <v>1045.699547878784</v>
       </c>
       <c r="L41" t="n">
-        <v>1496.733761127193</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M41" t="n">
-        <v>2030.265665799118</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.0444828579</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737237</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468334</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7588,31 +7588,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O44" t="n">
-        <v>2971.628073400775</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7801,16 +7801,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644069</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>77.53430065177932</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>53.57420189668811</v>
+        <v>53.57420189668801</v>
       </c>
       <c r="L3" t="n">
-        <v>337.7943315995364</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>384.102315357448</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>170.1140909277306</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>411.0304280899001</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>160.3329896347532</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>316.1012371454191</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,25 +10112,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>316.1012371454191</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>277.2206841544135</v>
+        <v>167.7369666428357</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>277.2206841544144</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>167.7369666428365</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>221.2853655744082</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>208.8258939314708</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>283.3434971709857</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>95.73704208629078</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143255</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>33.99483424558464</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.043062064371753</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>36.58154175077807</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>225.4428073092747</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>76.43966089725906</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>112.4945564668044</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>4.699399729883169</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>18.96245366221362</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.067812517853051e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>17853.33382022328</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26335,13 +26335,13 @@
         <v>19854.08934434915</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
         <v>20526.04424660708</v>
@@ -26353,7 +26353,7 @@
         <v>20526.04424660708</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407149.1034425573</v>
+        <v>407149.1034425577</v>
       </c>
       <c r="C3" t="n">
-        <v>173763.5037905494</v>
+        <v>173763.5037905489</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172931.4978406818</v>
+        <v>172931.497840682</v>
       </c>
       <c r="K3" t="n">
-        <v>40400.60123641972</v>
+        <v>40400.60123641964</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950531</v>
+        <v>84741.61795950525</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197708.9765693182</v>
+        <v>197708.976569318</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289568</v>
+        <v>28561.83935289566</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289569</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>44019.00033111479</v>
+        <v>44019.00033111481</v>
       </c>
       <c r="K4" t="n">
-        <v>44019.00033111479</v>
+        <v>44019.00033111481</v>
       </c>
       <c r="L4" t="n">
-        <v>44019.00033111477</v>
+        <v>44019.00033111481</v>
       </c>
       <c r="M4" t="n">
-        <v>64344.18042540624</v>
+        <v>64344.18042540622</v>
       </c>
       <c r="N4" t="n">
-        <v>64344.18042540623</v>
+        <v>64344.18042540625</v>
       </c>
       <c r="O4" t="n">
-        <v>64344.18042540623</v>
+        <v>64344.1804254062</v>
       </c>
       <c r="P4" t="n">
-        <v>64344.18042540623</v>
+        <v>64344.18042540621</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70369.11453112283</v>
+        <v>70369.11453112285</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-657373.8607227751</v>
+        <v>-657641.1317654137</v>
       </c>
       <c r="C6" t="n">
-        <v>-446018.953070385</v>
+        <v>-446018.9530703846</v>
       </c>
       <c r="D6" t="n">
         <v>-272255.4492798357</v>
       </c>
       <c r="E6" t="n">
-        <v>-832468.6822556669</v>
+        <v>-832535.8777458929</v>
       </c>
       <c r="F6" t="n">
-        <v>-105091.2682622602</v>
+        <v>-105158.463752486</v>
       </c>
       <c r="G6" t="n">
-        <v>-105091.2682622602</v>
+        <v>-105158.463752486</v>
       </c>
       <c r="H6" t="n">
-        <v>-105091.2682622602</v>
+        <v>-105158.463752486</v>
       </c>
       <c r="I6" t="n">
-        <v>-105091.2682622602</v>
+        <v>-105158.463752486</v>
       </c>
       <c r="J6" t="n">
-        <v>-296757.1249392916</v>
+        <v>-296757.1249392918</v>
       </c>
       <c r="K6" t="n">
         <v>-164226.2283350295</v>
@@ -26552,7 +26552,7 @@
         <v>-123825.6270986098</v>
       </c>
       <c r="M6" t="n">
-        <v>-217937.6958131106</v>
+        <v>-217937.6958131105</v>
       </c>
       <c r="N6" t="n">
         <v>-133196.0778536053</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6142034992833</v>
+        <v>242.6142034992836</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.3112647177378</v>
+        <v>517.3112647177381</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26826,10 +26826,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6142034992833</v>
+        <v>242.6142034992836</v>
       </c>
       <c r="C3" t="n">
-        <v>135.1294607178033</v>
+        <v>135.129460717803</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.3112647177378</v>
+        <v>517.3112647177381</v>
       </c>
       <c r="C4" t="n">
-        <v>156.9760080368178</v>
+        <v>156.9760080368175</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.3112647177378</v>
+        <v>517.3112647177381</v>
       </c>
       <c r="K4" t="n">
-        <v>156.9760080368178</v>
+        <v>156.9760080368175</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.3112647177378</v>
+        <v>517.3112647177381</v>
       </c>
       <c r="K4" t="n">
-        <v>156.9760080368178</v>
+        <v>156.9760080368175</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>390.2510487165056</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4861680993369</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>88.60232613989592</v>
       </c>
       <c r="S2" t="n">
         <v>186.7946578787482</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>146.1949955634461</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>40.49945385286613</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>107.1954774807849</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>71.42944891302476</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>67.757393919286</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>161.9900470300693</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.0613093267476</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>92.52385451307313</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.5534783357551</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3373906874019</v>
+        <v>62.2713283591418</v>
       </c>
       <c r="I4" t="n">
         <v>142.2936259899529</v>
       </c>
       <c r="J4" t="n">
-        <v>62.42785781152645</v>
+        <v>62.42785781152641</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.52729852330261</v>
+        <v>49.52729852330257</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>157.6217544836046</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>216.3921483958554</v>
       </c>
       <c r="T4" t="n">
-        <v>226.0762668767296</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>192.7456913158833</v>
+        <v>286.2951656643434</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>150.0826530293228</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>73.29449527163445</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>219.3029294626958</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.73665413220908</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>305.9696684909448</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6642365768992</v>
       </c>
     </row>
     <row r="11">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F38" t="n">
         <v>46.97513661859278</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30754,7 +30754,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="W44" t="n">
         <v>46.97513661859256</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9753334814041532</v>
+        <v>0.9753334814041543</v>
       </c>
       <c r="H2" t="n">
-        <v>9.988634016430286</v>
+        <v>9.988634016430298</v>
       </c>
       <c r="I2" t="n">
-        <v>37.60154404183366</v>
+        <v>37.6015440418337</v>
       </c>
       <c r="J2" t="n">
-        <v>82.78021006732583</v>
+        <v>82.78021006732592</v>
       </c>
       <c r="K2" t="n">
-        <v>124.0660763351637</v>
+        <v>124.0660763351638</v>
       </c>
       <c r="L2" t="n">
-        <v>153.914938366686</v>
+        <v>153.9149383666862</v>
       </c>
       <c r="M2" t="n">
-        <v>171.2600251666071</v>
+        <v>171.2600251666073</v>
       </c>
       <c r="N2" t="n">
-        <v>174.0311914206467</v>
+        <v>174.0311914206469</v>
       </c>
       <c r="O2" t="n">
-        <v>164.3327191149342</v>
+        <v>164.3327191149343</v>
       </c>
       <c r="P2" t="n">
-        <v>140.2541737927691</v>
+        <v>140.2541737927693</v>
       </c>
       <c r="Q2" t="n">
-        <v>105.3250434899828</v>
+        <v>105.3250434899829</v>
       </c>
       <c r="R2" t="n">
-        <v>61.2667918012537</v>
+        <v>61.26679180125377</v>
       </c>
       <c r="S2" t="n">
-        <v>22.22541170749716</v>
+        <v>22.22541170749719</v>
       </c>
       <c r="T2" t="n">
-        <v>4.269522314846683</v>
+        <v>4.269522314846688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07802667851233223</v>
+        <v>0.07802667851233233</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.521849418847515</v>
+        <v>0.5218494188475157</v>
       </c>
       <c r="H3" t="n">
-        <v>5.039966755711528</v>
+        <v>5.039966755711533</v>
       </c>
       <c r="I3" t="n">
-        <v>17.96718393839032</v>
+        <v>17.96718393839034</v>
       </c>
       <c r="J3" t="n">
-        <v>49.30332601488738</v>
+        <v>49.30332601488744</v>
       </c>
       <c r="K3" t="n">
-        <v>84.26723707767088</v>
+        <v>84.26723707767098</v>
       </c>
       <c r="L3" t="n">
-        <v>113.307699473887</v>
+        <v>113.3076994738871</v>
       </c>
       <c r="M3" t="n">
-        <v>132.2247409071094</v>
+        <v>132.2247409071095</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7243363519245</v>
+        <v>135.7243363519247</v>
       </c>
       <c r="O3" t="n">
-        <v>124.1612518606191</v>
+        <v>124.1612518606192</v>
       </c>
       <c r="P3" t="n">
-        <v>99.65035086746978</v>
+        <v>99.6503508674699</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.61362055323718</v>
+        <v>66.61362055323727</v>
       </c>
       <c r="R3" t="n">
-        <v>32.40044023335713</v>
+        <v>32.40044023335717</v>
       </c>
       <c r="S3" t="n">
-        <v>9.693124073768528</v>
+        <v>9.693124073768541</v>
       </c>
       <c r="T3" t="n">
-        <v>2.103419368073974</v>
+        <v>2.103419368073977</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03433219860838916</v>
+        <v>0.0343321986083892</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4375010227036256</v>
+        <v>0.4375010227036261</v>
       </c>
       <c r="H4" t="n">
-        <v>3.889781820037692</v>
+        <v>3.889781820037697</v>
       </c>
       <c r="I4" t="n">
-        <v>13.1568489373054</v>
+        <v>13.15684893730541</v>
       </c>
       <c r="J4" t="n">
-        <v>30.93132230514632</v>
+        <v>30.93132230514636</v>
       </c>
       <c r="K4" t="n">
-        <v>50.82966427411212</v>
+        <v>50.82966427411218</v>
       </c>
       <c r="L4" t="n">
-        <v>65.04447022995539</v>
+        <v>65.04447022995548</v>
       </c>
       <c r="M4" t="n">
-        <v>68.58027394980559</v>
+        <v>68.58027394980567</v>
       </c>
       <c r="N4" t="n">
-        <v>66.94958831972849</v>
+        <v>66.94958831972858</v>
       </c>
       <c r="O4" t="n">
-        <v>61.8387809181452</v>
+        <v>61.83878091814528</v>
       </c>
       <c r="P4" t="n">
-        <v>52.9137600549912</v>
+        <v>52.91376005499126</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.63474472839177</v>
+        <v>36.63474472839182</v>
       </c>
       <c r="R4" t="n">
-        <v>19.67163689356483</v>
+        <v>19.67163689356486</v>
       </c>
       <c r="S4" t="n">
-        <v>7.624449641116818</v>
+        <v>7.624449641116827</v>
       </c>
       <c r="T4" t="n">
-        <v>1.869322551551854</v>
+        <v>1.869322551551856</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02386369214747051</v>
+        <v>0.02386369214747054</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32321,10 +32321,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32795,10 +32795,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33743,10 +33743,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>70.83092071271331</v>
+        <v>70.83092071271341</v>
       </c>
       <c r="K2" t="n">
-        <v>228.1216378613478</v>
+        <v>228.121637861348</v>
       </c>
       <c r="L2" t="n">
-        <v>335.8097379471492</v>
+        <v>335.8097379471494</v>
       </c>
       <c r="M2" t="n">
-        <v>390.4273254321669</v>
+        <v>390.4273254321671</v>
       </c>
       <c r="N2" t="n">
-        <v>381.9650522360399</v>
+        <v>381.9650522360402</v>
       </c>
       <c r="O2" t="n">
-        <v>315.0346889559928</v>
+        <v>315.034688955993</v>
       </c>
       <c r="P2" t="n">
-        <v>230.8198862089822</v>
+        <v>230.8198862089824</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.33434427543801</v>
+        <v>95.33434427543814</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>48.55673468862958</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>312.5476512935492</v>
+        <v>345.5936649974721</v>
       </c>
       <c r="M3" t="n">
-        <v>455.795770735091</v>
+        <v>374.1930223425392</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7249986121448</v>
+        <v>483.7249986121449</v>
       </c>
       <c r="O3" t="n">
-        <v>375.4273266929042</v>
+        <v>375.4273266929043</v>
       </c>
       <c r="P3" t="n">
-        <v>284.1387120930767</v>
+        <v>284.1387120930768</v>
       </c>
       <c r="Q3" t="n">
         <v>136.7091342030648</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.56017244822927</v>
+        <v>28.56017244822933</v>
       </c>
       <c r="L4" t="n">
-        <v>92.63449549027153</v>
+        <v>92.63449549027162</v>
       </c>
       <c r="M4" t="n">
-        <v>108.1641509116462</v>
+        <v>108.1641509116463</v>
       </c>
       <c r="N4" t="n">
-        <v>111.0817606989571</v>
+        <v>111.0817606989572</v>
       </c>
       <c r="O4" t="n">
-        <v>86.42390883218488</v>
+        <v>86.42390883218496</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19231931988469</v>
+        <v>50.19231931988475</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226341</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>507.3053774831311</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>866.6205424822323</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35969,10 +35969,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36121,22 +36121,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>559.0949758541251</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36443,10 +36443,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>653.2925237008196</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>653.2925237008196</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37245,7 +37245,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37543,7 +37543,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>614.411970709814</v>
+        <v>504.9282531982362</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37558,10 +37558,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,7 +37780,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>614.4119707098149</v>
+        <v>614.411970709814</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38026,13 +38026,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>675.7899675310556</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>620.0473517937801</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
